--- a/ffyypp/labor-data.xlsx
+++ b/ffyypp/labor-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\webx2\ffyypp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B07BAB2-F8BD-47D6-AC07-F5511D6194D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1694BC24-19B4-43FD-ADE1-A2B40AD3CF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8CE183C5-982A-44FB-8845-10BE65140C56}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>Shah Hussain</t>
   </si>
   <si>
-    <t>0325-55433449</t>
-  </si>
-  <si>
     <t>Mazdoor</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>LABORERS' PROFILES DATA</t>
+  </si>
+  <si>
+    <t>0325-5543349</t>
   </si>
 </sst>
 </file>
@@ -251,19 +251,19 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -582,675 +582,719 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDDA73-0070-457E-8ABF-16F320C30940}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:L13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>12</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>4</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>4</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>3</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D1:M2"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D3:F3"/>
@@ -1275,59 +1319,34 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D1:M2"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="I13:L13"/>
@@ -1340,25 +1359,6 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1366,15 +1366,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000AE9A2608EA96D45AAE389B93475C315" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="382a91d1d4914eb9acf878e02ef238f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3f9da519-6f72-484c-a2c1-51d99853cf4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57465941069c0c8de90c99418f765d72" ns3:_="">
     <xsd:import namespace="3f9da519-6f72-484c-a2c1-51d99853cf4d"/>
@@ -1506,6 +1497,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1513,14 +1513,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6247C31-B8A4-456F-88BF-9CB7F0270539}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6215CBCC-CEC6-4171-A9E3-3FF54D1B6067}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1534,6 +1526,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6247C31-B8A4-456F-88BF-9CB7F0270539}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
